--- a/report/No2_テスト結果.xlsx
+++ b/report/No2_テスト結果.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>2023/8/3</t>
     <phoneticPr fontId="1"/>
@@ -133,19 +134,19 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -336,6 +337,125 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>191968</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>153567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="533400"/>
+          <a:ext cx="10517068" cy="8364117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>201494</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>96412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="514350"/>
+          <a:ext cx="10526594" cy="8326012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>191968</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>67833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="514350"/>
+          <a:ext cx="10517068" cy="8297433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -678,65 +798,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
@@ -1314,80 +1434,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="8">
+      <c r="A1" s="5">
         <v>45141</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1404,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1419,12 +1539,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1439,10 +1559,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P52" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1470,26 +1626,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -1647,31 +1789,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1687,4 +1820,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/report/No2_テスト結果.xlsx
+++ b/report/No2_テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -12,66 +12,84 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="4" sheetId="4" r:id="rId4"/>
     <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>2023/8/3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>氏名の検索項目を表示</t>
-    <rPh sb="0" eb="2">
+    <t>メールアドレス検索項目の下に氏名検索項目を表示</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>シメイ</t>
     </rPh>
-    <rPh sb="3" eb="7">
+    <rPh sb="16" eb="20">
       <t>ケンサクコウモク</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>氏名の検索情報が表示される</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
+    <t>加入者の検索結果が表示されるページ</t>
+    <rPh sb="0" eb="3">
+      <t>カニュウシャ</t>
     </rPh>
-    <rPh sb="3" eb="7">
-      <t>ケンサクジョウホウ</t>
+    <rPh sb="4" eb="8">
+      <t>ケンサクケッカ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一文字でも共通していれば検索結果に表示</t>
-    <rPh sb="0" eb="3">
-      <t>イチモジ</t>
+    <t>氏名の項目に文字を入力、一部でも登録情報に該当するデータを全て表示</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョウツウ</t>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
     </rPh>
-    <rPh sb="12" eb="16">
-      <t>ケンサクケッカ</t>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
     </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>氏名検索項目に情報を入れない時の検索結果表示</t>
-    <rPh sb="16" eb="18">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>ケッカヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -143,15 +161,13 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -179,14 +195,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>259186</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>147942</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>61248</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>75116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -200,7 +216,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="504265"/>
-          <a:ext cx="8754696" cy="4182059"/>
+          <a:ext cx="10555173" cy="4277322"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -219,17 +235,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>201494</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>105934</xdr:rowOff>
+      <xdr:colOff>199809</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>130542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -242,8 +258,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="542925"/>
-          <a:ext cx="10526594" cy="8306959"/>
+          <a:off x="0" y="537883"/>
+          <a:ext cx="10498015" cy="3962953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -266,13 +282,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>201494</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>96412</xdr:rowOff>
+      <xdr:colOff>182441</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>20153</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -286,7 +302,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="514350"/>
-          <a:ext cx="10526594" cy="8326012"/>
+          <a:ext cx="10507541" cy="7906853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -304,13 +320,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>191968</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>67833</xdr:rowOff>
+      <xdr:colOff>220547</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="5" name="図 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -324,169 +340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="514350"/>
-          <a:ext cx="10517068" cy="8297433"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>191968</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>153567</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="533400"/>
-          <a:ext cx="10517068" cy="8364117"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>201494</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>96412</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="514350"/>
-          <a:ext cx="10526594" cy="8326012"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>191968</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>67833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="514350"/>
-          <a:ext cx="10517068" cy="8297433"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>191968</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>153567</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="533400"/>
-          <a:ext cx="10517068" cy="8364117"/>
+          <a:ext cx="10545647" cy="7887801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -788,7 +642,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -840,7 +694,7 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1425,7 +1279,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1473,12 +1327,12 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
-        <v>2</v>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1510,8 +1364,46 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="2">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+  </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1520,12 +1412,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R20" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1539,12 +1431,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1552,44 +1442,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P52" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2">
-        <v>45141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1598,7 +1450,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1612,13 +1464,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1627,11 +1477,77 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -1789,22 +1705,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1820,28 +1745,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/report/No2_テスト結果.xlsx
+++ b/report/No2_テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>2023/8/3</t>
     <phoneticPr fontId="1"/>
@@ -89,6 +89,87 @@
       <t>スベ</t>
     </rPh>
     <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスに一致したレコードは、すべて表示</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されているメールアドレスと氏名に部分一致したレコードを表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両方の検索欄に何も入力しない場合登録情報すべて表示</t>
+    <rPh sb="0" eb="2">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス一致、氏名不一致の表示</t>
+    <rPh sb="7" eb="9">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>フイッチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス不一致、氏名一致の表示</t>
+    <rPh sb="7" eb="10">
+      <t>フイッチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス不一致、氏名不一致の表示</t>
+    <rPh sb="7" eb="10">
+      <t>フイッチ</t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>シメイフイッチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -147,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -155,6 +236,7 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -167,7 +249,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -341,6 +423,264 @@
         <a:xfrm>
           <a:off x="0" y="514350"/>
           <a:ext cx="10545647" cy="7887801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>172915</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>48705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="542925"/>
+          <a:ext cx="10498015" cy="7735380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>172915</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>20130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="514350"/>
+          <a:ext cx="10498015" cy="7735380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182441</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="514350"/>
+          <a:ext cx="10507541" cy="7725853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>191962</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>29655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="523875"/>
+          <a:ext cx="10478962" cy="7735380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163389</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>39182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="514350"/>
+          <a:ext cx="10488489" cy="7754432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>201494</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>163001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="514350"/>
+          <a:ext cx="10526594" cy="7706801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -652,10 +992,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -693,12 +1033,12 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1327,12 +1667,12 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1375,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -1390,16 +1730,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1414,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1425,32 +1765,40 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
         <v>45141</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1458,96 +1806,190 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
         <v>45141</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="10"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="2">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -1705,31 +2147,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1745,4 +2178,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>